--- a/fichier test upload.xlsx
+++ b/fichier test upload.xlsx
@@ -46,12 +46,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,33 +389,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G8"/>
+  <dimension ref="B3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
